--- a/Result/indeed.xlsx
+++ b/Result/indeed.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tranc\OneDrive\Documents\GitHub\PythonScrapJob\Result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1230" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="1274">
   <si>
     <t>Name</t>
   </si>
@@ -17847,12 +17852,15 @@
   <si>
     <t xml:space="preserve"> 6 hours ago </t>
   </si>
+  <si>
+    <t>Địa điểm:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17915,6 +17923,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -17961,7 +17977,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17993,9 +18009,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -18027,6 +18044,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -18202,14 +18220,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F611"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F629"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A608" workbookViewId="0">
+      <selection activeCell="D630" sqref="D630"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="56.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18226,7 +18251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -18246,7 +18271,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -18266,7 +18291,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -18286,7 +18311,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -18306,7 +18331,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -18326,7 +18351,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -18346,7 +18371,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -18366,7 +18391,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -18386,7 +18411,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -18406,7 +18431,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -18426,7 +18451,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -18446,7 +18471,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -18466,7 +18491,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -18486,7 +18511,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -18506,7 +18531,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -18526,7 +18551,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -18546,7 +18571,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -18566,7 +18591,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -18586,7 +18611,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -18606,7 +18631,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -18626,7 +18651,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -18646,7 +18671,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -18666,7 +18691,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -18686,7 +18711,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -18706,7 +18731,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -18726,7 +18751,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -18746,7 +18771,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -18766,7 +18791,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -18786,7 +18811,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -18806,7 +18831,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -18826,7 +18851,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -18846,7 +18871,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -18866,7 +18891,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -18886,7 +18911,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -18906,7 +18931,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -18926,7 +18951,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -18946,7 +18971,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -18966,7 +18991,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -18986,7 +19011,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -19006,7 +19031,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -19026,7 +19051,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -19046,7 +19071,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -19066,7 +19091,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -19086,7 +19111,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -19106,7 +19131,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -19126,7 +19151,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -19146,7 +19171,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -19166,7 +19191,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -19186,7 +19211,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -19206,7 +19231,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -19226,7 +19251,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -19246,7 +19271,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -19266,7 +19291,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -19286,7 +19311,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -19306,7 +19331,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -19326,7 +19351,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -19346,7 +19371,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -19366,7 +19391,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -19386,7 +19411,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -19406,7 +19431,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -19426,7 +19451,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -19446,7 +19471,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -19466,7 +19491,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -19486,7 +19511,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -19506,7 +19531,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -19526,7 +19551,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -19546,7 +19571,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -19566,7 +19591,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -19586,7 +19611,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -19606,7 +19631,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -19626,7 +19651,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -19646,7 +19671,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -19666,7 +19691,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -19686,7 +19711,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -19706,7 +19731,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -19726,7 +19751,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -19746,7 +19771,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -19766,7 +19791,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -19786,7 +19811,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -19806,7 +19831,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -19826,7 +19851,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -19846,7 +19871,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -19866,7 +19891,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -19886,7 +19911,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -19906,7 +19931,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -19926,7 +19951,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -19946,7 +19971,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -19966,7 +19991,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -19986,7 +20011,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -20006,7 +20031,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -20026,7 +20051,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -20046,7 +20071,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -20066,7 +20091,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -20086,7 +20111,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -20106,7 +20131,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -20126,7 +20151,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -20146,7 +20171,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -20166,7 +20191,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -20186,7 +20211,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -20206,7 +20231,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -20226,7 +20251,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -20246,7 +20271,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -20266,7 +20291,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -20286,7 +20311,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -20306,7 +20331,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -20326,7 +20351,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -20346,7 +20371,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -20366,7 +20391,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -20386,7 +20411,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -20406,7 +20431,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -20426,7 +20451,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -20446,7 +20471,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -20466,7 +20491,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -20486,7 +20511,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -20506,7 +20531,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -20526,7 +20551,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -20546,7 +20571,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -20566,7 +20591,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -20586,7 +20611,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -20606,7 +20631,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -20626,7 +20651,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -20646,7 +20671,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -20666,7 +20691,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -20686,7 +20711,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -20706,7 +20731,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -20726,7 +20751,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -20746,7 +20771,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -20766,7 +20791,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -20786,7 +20811,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -20806,7 +20831,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -20826,7 +20851,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -20846,7 +20871,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -20866,7 +20891,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -20886,7 +20911,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -20906,7 +20931,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -20926,7 +20951,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -20946,7 +20971,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -20966,7 +20991,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -20986,7 +21011,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -21006,7 +21031,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -21026,7 +21051,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -21046,7 +21071,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -21066,7 +21091,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -21086,7 +21111,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -21106,7 +21131,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -21126,7 +21151,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -21146,7 +21171,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -21166,7 +21191,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -21186,7 +21211,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -21206,7 +21231,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -21226,7 +21251,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -21246,7 +21271,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -21266,7 +21291,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -21286,7 +21311,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -21306,7 +21331,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -21326,7 +21351,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -21346,7 +21371,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -21366,7 +21391,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -21386,7 +21411,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -21406,7 +21431,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -21426,7 +21451,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -21446,7 +21471,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -21466,7 +21491,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -21486,7 +21511,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -21506,7 +21531,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -21526,7 +21551,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -21546,7 +21571,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -21566,7 +21591,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -21586,7 +21611,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -21606,7 +21631,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -21626,7 +21651,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -21646,7 +21671,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -21666,7 +21691,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -21686,7 +21711,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -21706,7 +21731,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -21726,7 +21751,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -21746,7 +21771,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -21766,7 +21791,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -21786,7 +21811,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -21806,7 +21831,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -21826,7 +21851,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -21846,7 +21871,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -21866,7 +21891,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -21886,7 +21911,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -21906,7 +21931,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -21926,7 +21951,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -21946,7 +21971,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -21966,7 +21991,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -21986,7 +22011,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -22006,7 +22031,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -22026,7 +22051,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -22046,7 +22071,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -22066,7 +22091,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -22086,7 +22111,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -22106,7 +22131,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -22126,7 +22151,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -22146,7 +22171,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -22166,7 +22191,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -22186,7 +22211,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -22206,7 +22231,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -22226,7 +22251,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -22246,7 +22271,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -22266,7 +22291,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -22286,7 +22311,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -22306,7 +22331,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -22326,7 +22351,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -22346,7 +22371,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -22366,7 +22391,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -22386,7 +22411,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -22406,7 +22431,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -22426,7 +22451,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -22446,7 +22471,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -22466,7 +22491,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -22486,7 +22511,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -22506,7 +22531,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -22526,7 +22551,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -22546,7 +22571,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -22566,7 +22591,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -22586,7 +22611,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -22606,7 +22631,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -22626,7 +22651,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -22646,7 +22671,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -22666,7 +22691,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -22686,7 +22711,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -22706,7 +22731,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -22726,7 +22751,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -22746,7 +22771,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -22766,7 +22791,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -22786,7 +22811,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -22806,7 +22831,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -22826,7 +22851,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -22846,7 +22871,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -22866,7 +22891,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -22886,7 +22911,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -22906,7 +22931,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -22926,7 +22951,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -22946,7 +22971,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -22966,7 +22991,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -22986,7 +23011,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -23006,7 +23031,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -23026,7 +23051,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -23046,7 +23071,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -23066,7 +23091,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -23086,7 +23111,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -23106,7 +23131,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -23126,7 +23151,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -23146,7 +23171,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -23166,7 +23191,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -23186,7 +23211,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -23206,7 +23231,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -23226,7 +23251,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -23246,7 +23271,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -23266,7 +23291,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -23286,7 +23311,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -23306,7 +23331,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -23326,7 +23351,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -23346,7 +23371,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -23366,7 +23391,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -23386,7 +23411,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -23406,7 +23431,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -23426,7 +23451,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -23446,7 +23471,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -23466,7 +23491,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -23486,7 +23511,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -23506,7 +23531,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -23526,7 +23551,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -23546,7 +23571,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -23566,7 +23591,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -23586,7 +23611,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -23606,7 +23631,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -23626,7 +23651,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -23646,7 +23671,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -23666,7 +23691,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -23686,7 +23711,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -23706,7 +23731,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -23726,7 +23751,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -23746,7 +23771,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -23766,7 +23791,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -23786,7 +23811,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -23806,7 +23831,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -23826,7 +23851,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -23846,7 +23871,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -23866,7 +23891,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -23886,7 +23911,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -23906,7 +23931,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -23926,7 +23951,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -23946,7 +23971,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -23966,7 +23991,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -23986,7 +24011,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -24006,7 +24031,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -24026,7 +24051,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -24046,7 +24071,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -24066,7 +24091,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -24086,7 +24111,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -24106,7 +24131,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -24126,7 +24151,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -24146,7 +24171,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -24166,7 +24191,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -24186,7 +24211,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -24206,7 +24231,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -24226,7 +24251,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -24246,7 +24271,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -24266,7 +24291,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -24286,7 +24311,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -24306,7 +24331,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -24326,7 +24351,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -24346,7 +24371,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -24366,7 +24391,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -24386,7 +24411,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -24406,7 +24431,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -24426,7 +24451,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -24446,7 +24471,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -24466,7 +24491,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -24486,7 +24511,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -24506,7 +24531,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -24526,7 +24551,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -24546,7 +24571,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -24566,7 +24591,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -24586,7 +24611,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -24606,7 +24631,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -24626,7 +24651,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -24646,7 +24671,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -24666,7 +24691,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -24686,7 +24711,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -24706,7 +24731,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -24726,7 +24751,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -24746,7 +24771,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -24766,7 +24791,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -24786,7 +24811,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -24806,7 +24831,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -24826,7 +24851,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -24846,7 +24871,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -24866,7 +24891,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -24886,7 +24911,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -24906,7 +24931,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -24926,7 +24951,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -24946,7 +24971,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -24966,7 +24991,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -24986,7 +25011,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -25006,7 +25031,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -25026,7 +25051,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -25046,7 +25071,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -25066,7 +25091,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -25086,7 +25111,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -25106,7 +25131,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -25126,7 +25151,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -25146,7 +25171,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -25166,7 +25191,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -25186,7 +25211,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -25206,7 +25231,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -25226,7 +25251,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -25246,7 +25271,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -25266,7 +25291,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -25286,7 +25311,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -25306,7 +25331,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -25326,7 +25351,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -25346,7 +25371,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -25366,7 +25391,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -25386,7 +25411,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -25406,7 +25431,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -25426,7 +25451,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -25446,7 +25471,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -25466,7 +25491,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -25486,7 +25511,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -25506,7 +25531,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -25526,7 +25551,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -25546,7 +25571,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -25566,7 +25591,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -25586,7 +25611,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -25606,7 +25631,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -25626,7 +25651,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -25646,7 +25671,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -25666,7 +25691,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -25686,7 +25711,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -25706,7 +25731,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -25726,7 +25751,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -25746,7 +25771,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -25766,7 +25791,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -25786,7 +25811,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -25806,7 +25831,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -25826,7 +25851,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -25846,7 +25871,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -25866,7 +25891,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -25886,7 +25911,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -25906,7 +25931,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -25926,7 +25951,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -25946,7 +25971,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -25966,7 +25991,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -25986,7 +26011,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -26006,7 +26031,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -26026,7 +26051,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -26046,7 +26071,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -26066,7 +26091,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -26086,7 +26111,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -26106,7 +26131,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -26126,7 +26151,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -26146,7 +26171,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -26166,7 +26191,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -26186,7 +26211,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -26206,7 +26231,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -26226,7 +26251,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -26246,7 +26271,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -26266,7 +26291,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -26286,7 +26311,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -26306,7 +26331,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -26326,7 +26351,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -26346,7 +26371,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -26366,7 +26391,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -26386,7 +26411,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -26406,7 +26431,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -26426,7 +26451,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -26446,7 +26471,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -26466,7 +26491,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -26486,7 +26511,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -26506,7 +26531,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -26526,7 +26551,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -26546,7 +26571,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -26566,7 +26591,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -26586,7 +26611,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -26606,7 +26631,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -26626,7 +26651,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -26646,7 +26671,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -26666,7 +26691,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -26686,7 +26711,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -26706,7 +26731,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -26726,7 +26751,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -26746,7 +26771,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -26766,7 +26791,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -26786,7 +26811,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -26806,7 +26831,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -26826,7 +26851,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -26846,7 +26871,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -26866,7 +26891,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -26886,7 +26911,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -26906,7 +26931,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -26926,7 +26951,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -26946,7 +26971,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -26966,7 +26991,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -26986,7 +27011,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -27006,7 +27031,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -27026,7 +27051,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -27046,7 +27071,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -27066,7 +27091,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -27086,7 +27111,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -27106,7 +27131,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -27126,7 +27151,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -27146,7 +27171,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -27166,7 +27191,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -27186,7 +27211,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -27206,7 +27231,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -27226,7 +27251,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -27246,7 +27271,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -27266,7 +27291,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -27286,7 +27311,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -27306,7 +27331,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -27326,7 +27351,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -27346,7 +27371,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -27366,7 +27391,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -27386,7 +27411,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -27406,7 +27431,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -27426,7 +27451,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -27446,7 +27471,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -27466,7 +27491,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -27486,7 +27511,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -27506,7 +27531,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -27526,7 +27551,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -27546,7 +27571,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -27566,7 +27591,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -27586,7 +27611,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -27606,7 +27631,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -27626,7 +27651,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -27646,7 +27671,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -27666,7 +27691,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -27686,7 +27711,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -27706,7 +27731,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -27726,7 +27751,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -27746,7 +27771,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -27766,7 +27791,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -27786,7 +27811,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -27806,7 +27831,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -27826,7 +27851,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -27846,7 +27871,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -27866,7 +27891,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -27886,7 +27911,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -27906,7 +27931,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -27926,7 +27951,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -27946,7 +27971,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -27966,7 +27991,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -27986,7 +28011,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -28006,7 +28031,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -28026,7 +28051,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -28046,7 +28071,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -28066,7 +28091,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -28086,7 +28111,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -28106,7 +28131,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -28126,7 +28151,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -28146,7 +28171,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -28166,7 +28191,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -28186,7 +28211,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -28206,7 +28231,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -28226,7 +28251,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -28246,7 +28271,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -28266,7 +28291,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="504" spans="1:6">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -28286,7 +28311,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -28306,7 +28331,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="506" spans="1:6">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -28326,7 +28351,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="507" spans="1:6">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -28346,7 +28371,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="508" spans="1:6">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -28366,7 +28391,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="509" spans="1:6">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -28386,7 +28411,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="510" spans="1:6">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -28406,7 +28431,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="511" spans="1:6">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -28426,7 +28451,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="512" spans="1:6">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -28446,7 +28471,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -28466,7 +28491,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="514" spans="1:6">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -28486,7 +28511,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -28506,7 +28531,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -28526,7 +28551,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -28546,7 +28571,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -28566,7 +28591,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -28586,7 +28611,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -28606,7 +28631,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -28626,7 +28651,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="522" spans="1:6">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -28646,7 +28671,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -28666,7 +28691,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -28686,7 +28711,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -28706,7 +28731,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -28726,7 +28751,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -28746,7 +28771,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -28766,7 +28791,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -28786,7 +28811,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -28806,7 +28831,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -28826,7 +28851,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -28846,7 +28871,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="533" spans="1:6">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -28866,7 +28891,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -28886,7 +28911,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -28906,7 +28931,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -28926,7 +28951,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -28946,7 +28971,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -28966,7 +28991,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -28986,7 +29011,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -29006,7 +29031,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -29026,7 +29051,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -29046,7 +29071,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -29066,7 +29091,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -29086,7 +29111,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -29106,7 +29131,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -29126,7 +29151,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -29146,7 +29171,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -29166,7 +29191,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -29186,7 +29211,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -29206,7 +29231,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -29226,7 +29251,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -29246,7 +29271,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -29266,7 +29291,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -29286,7 +29311,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -29306,7 +29331,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -29326,7 +29351,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -29346,7 +29371,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -29366,7 +29391,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -29386,7 +29411,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -29406,7 +29431,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -29426,7 +29451,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -29446,7 +29471,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -29466,7 +29491,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -29486,7 +29511,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -29506,7 +29531,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -29526,7 +29551,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -29546,7 +29571,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -29566,7 +29591,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -29586,7 +29611,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -29606,7 +29631,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="571" spans="1:6">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -29626,7 +29651,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -29646,7 +29671,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -29666,7 +29691,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="574" spans="1:6">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -29686,7 +29711,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="575" spans="1:6">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -29706,7 +29731,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="576" spans="1:6">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -29726,7 +29751,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="577" spans="1:6">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -29746,7 +29771,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="578" spans="1:6">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -29766,7 +29791,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="579" spans="1:6">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -29786,7 +29811,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="580" spans="1:6">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -29806,7 +29831,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="581" spans="1:6">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -29826,7 +29851,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="582" spans="1:6">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -29846,7 +29871,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="583" spans="1:6">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -29866,7 +29891,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="584" spans="1:6">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -29886,7 +29911,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="585" spans="1:6">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -29906,7 +29931,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="586" spans="1:6">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -29926,7 +29951,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="587" spans="1:6">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -29946,7 +29971,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="588" spans="1:6">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -29966,7 +29991,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="589" spans="1:6">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -29986,7 +30011,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -30006,7 +30031,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="591" spans="1:6">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -30026,7 +30051,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="592" spans="1:6">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -30046,7 +30071,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="593" spans="1:6">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -30066,7 +30091,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="594" spans="1:6">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -30086,7 +30111,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="595" spans="1:6">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -30106,7 +30131,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -30126,7 +30151,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="597" spans="1:6">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -30146,7 +30171,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="598" spans="1:6">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -30166,7 +30191,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="599" spans="1:6">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -30186,7 +30211,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="600" spans="1:6">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -30206,7 +30231,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="601" spans="1:6">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -30226,7 +30251,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="602" spans="1:6">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -30246,7 +30271,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -30266,7 +30291,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="604" spans="1:6">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -30286,7 +30311,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="605" spans="1:6">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -30306,7 +30331,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="606" spans="1:6">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -30326,7 +30351,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="607" spans="1:6">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -30346,7 +30371,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="608" spans="1:6">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -30366,7 +30391,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="609" spans="1:6">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -30386,7 +30411,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="610" spans="1:6">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -30406,7 +30431,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="611" spans="1:6">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -30426,7 +30451,103 @@
         <v>1239</v>
       </c>
     </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D614" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D615" t="str">
+        <f>CONCATENATE(D609,": ",COUNTIF(D1:D611,D611))</f>
+        <v>Thành phố Hồ Chí Minh: 437</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D616" t="str">
+        <f>CONCATENATE(D610,": ",COUNTIF(D1:D611,D610))</f>
+        <v>Biên Hòa: 2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D617" t="str">
+        <f>CONCATENATE(D607,": ",COUNTIF(D1:D611,D607))</f>
+        <v>Việt Nam: 54</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D618" t="str">
+        <f>CONCATENATE(D596,": ",COUNTIF(D1:D611,D596))</f>
+        <v>Đồng Nai: 9</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D619" t="str">
+        <f>CONCATENATE(D589,": ",COUNTIF(D1:D611,D589))</f>
+        <v>Cần Thơ: 1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D620" t="str">
+        <f>CONCATENATE(D582,": ",COUNTIF(D1:D611,D582))</f>
+        <v>Kon Tum: 1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D621" t="str">
+        <f>CONCATENATE(D569,": ",COUNTIF(D1:D611,D569))</f>
+        <v>Thái Bình: 1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D622" t="str">
+        <f>CONCATENATE(D561,": ",COUNTIF(D1:D611,D561))</f>
+        <v>Hải Phòng: 2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D623" t="str">
+        <f>CONCATENATE(D553,": ",COUNTIF(D1:D611,D553))</f>
+        <v>Bình Dương: 27</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D624" t="str">
+        <f>CONCATENATE(D443,": ",COUNTIF(D1:D611,D443))</f>
+        <v>Bà Rịa - Vũng Tàu: 4</v>
+      </c>
+    </row>
+    <row r="625" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D625" t="str">
+        <f>CONCATENATE(D280,": ",COUNTIF(D1:D611,D280))</f>
+        <v>Long Xuyên: 1</v>
+      </c>
+    </row>
+    <row r="626" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D626" t="str">
+        <f>CONCATENATE(D224,": ",COUNTIF(D1:D611,D224))</f>
+        <v>Bắc Ninh: 1</v>
+      </c>
+    </row>
+    <row r="627" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D627" t="str">
+        <f>CONCATENATE(D151,": ",COUNTIF(D1:D611,D151))</f>
+        <v>Hưng Yên: 1</v>
+      </c>
+    </row>
+    <row r="628" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D628" t="str">
+        <f>CONCATENATE(D70,": ",COUNTIF(D1:D611,D70))</f>
+        <v>Ðà Nẵng: 1</v>
+      </c>
+    </row>
+    <row r="629" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D629" t="str">
+        <f>CONCATENATE(D605,": ",COUNTIF(D1:D611,D605))</f>
+        <v>Hà Nội: 62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>